--- a/output/fit_clients/fit_round_138.xlsx
+++ b/output/fit_clients/fit_round_138.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1539573420.172569</v>
+        <v>2342582283.829149</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06929683020672321</v>
+        <v>0.1105101620129608</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04329118053105398</v>
+        <v>0.03187934100610561</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>769786643.801237</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2301932447.841503</v>
+        <v>2525885780.624137</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1310762609459616</v>
+        <v>0.1413506055285064</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04982989501087842</v>
+        <v>0.04442967691617299</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1150966310.693582</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4043144052.332601</v>
+        <v>4567189834.656694</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1648450898372459</v>
+        <v>0.1300852751273671</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02650922963303328</v>
+        <v>0.03090702920001469</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>50</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2021572043.357032</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3013706007.688704</v>
+        <v>3432502318.221601</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07057719962135238</v>
+        <v>0.07418008899546592</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04946920038398835</v>
+        <v>0.03785953054066227</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>52</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1506853072.765747</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2846241387.770432</v>
+        <v>2613026327.149295</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1038896023831624</v>
+        <v>0.09607388320343871</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04904180821228044</v>
+        <v>0.05061737404190321</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>20</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1423120631.844194</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2832787539.463359</v>
+        <v>3128496467.959508</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09525134590129741</v>
+        <v>0.06483961173802361</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03133134004130923</v>
+        <v>0.03947080625083735</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>41</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1416393750.727281</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3713820224.727565</v>
+        <v>2778702136.854228</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1334973049904534</v>
+        <v>0.144173365583593</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02278516470331562</v>
+        <v>0.03031034353019444</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>45</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1856910242.805844</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1931432857.962936</v>
+        <v>1529349179.451154</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1955812412500544</v>
+        <v>0.1612248873248625</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02434928322861923</v>
+        <v>0.02360274768017257</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>965716465.0664245</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5307120308.291677</v>
+        <v>4477856683.548877</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1988668877456781</v>
+        <v>0.1347257590382741</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04348227385100014</v>
+        <v>0.04768061999511507</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>58</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2653560277.182673</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4172602812.010629</v>
+        <v>2782638355.528148</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1876225735801043</v>
+        <v>0.15045000895339</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03397929160111324</v>
+        <v>0.03777605717069994</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>57</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2086301430.728138</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2963374047.398204</v>
+        <v>2502651664.663303</v>
       </c>
       <c r="F12" t="n">
-        <v>0.161671129392461</v>
+        <v>0.1818849678472597</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04025719054514292</v>
+        <v>0.04812634052054791</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>48</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1481687038.313259</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3277039790.310757</v>
+        <v>3227745948.194607</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1003341784288121</v>
+        <v>0.0780372449564001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02595905893092212</v>
+        <v>0.01939980830991704</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>46</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1638519986.773016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2488835116.318136</v>
+        <v>2648284089.759058</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1754145773118152</v>
+        <v>0.1603935190582469</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03574054037786555</v>
+        <v>0.03805459713207001</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>44</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1244417629.564578</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1629877780.593861</v>
+        <v>1473286957.014042</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1032049705364734</v>
+        <v>0.1046022154098521</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03632904264112018</v>
+        <v>0.03813156498680381</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>814939005.197342</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2411490376.660084</v>
+        <v>2703414241.890026</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1142603957874514</v>
+        <v>0.09035577143164097</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04659979933762445</v>
+        <v>0.04610729317075147</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>22</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1205745227.012756</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4730166324.556544</v>
+        <v>5180572100.957458</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1200791843186894</v>
+        <v>0.1068277848057616</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04185539593529895</v>
+        <v>0.0409134016627213</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>40</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2365083160.766864</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2666107833.73198</v>
+        <v>2975574555.055779</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1786265036567892</v>
+        <v>0.1537410201630472</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0317300324370565</v>
+        <v>0.0321255802937441</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>45</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1333053971.308802</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>949923545.6626297</v>
+        <v>1009236905.530905</v>
       </c>
       <c r="F19" t="n">
-        <v>0.115988842133907</v>
+        <v>0.1809924760956961</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02654828855575525</v>
+        <v>0.02639672931312857</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>474961789.8408785</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1931397395.136554</v>
+        <v>2676612524.274839</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1328050923597369</v>
+        <v>0.1527702518547256</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02808919535825229</v>
+        <v>0.03182663741205033</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>22</v>
-      </c>
-      <c r="J20" t="n">
-        <v>965698731.1872419</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2432560466.523052</v>
+        <v>2500862380.285259</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06524839985739211</v>
+        <v>0.06198653999732644</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03131549103900316</v>
+        <v>0.04192781967437374</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1216280227.823146</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3139946988.157157</v>
+        <v>2939893481.045524</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1310420280632023</v>
+        <v>0.1265832736877671</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03956973798486295</v>
+        <v>0.04815705999765267</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>39</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1569973547.186867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>997470643.2540992</v>
+        <v>1386782891.746867</v>
       </c>
       <c r="F23" t="n">
-        <v>0.150503133410992</v>
+        <v>0.1165702692789127</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0487335028109651</v>
+        <v>0.03750942954761862</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>498735392.1950641</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2992844826.206915</v>
+        <v>4052309979.2063</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1364760001581145</v>
+        <v>0.1389031776223176</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03080008468809498</v>
+        <v>0.03005727652515682</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>40</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1496422448.77919</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1059587978.63167</v>
+        <v>1086426929.791003</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09441756566728056</v>
+        <v>0.08742335497622401</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03085584534004864</v>
+        <v>0.02705796065506463</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>529794039.5459293</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>979116518.372895</v>
+        <v>1314803766.655888</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1120703134740553</v>
+        <v>0.09282161274847386</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0359516360551056</v>
+        <v>0.03033389739656264</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>489558226.0968233</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3030020781.676133</v>
+        <v>4036211352.717535</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1210902540480923</v>
+        <v>0.1397136292735949</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02017747193118756</v>
+        <v>0.0233446664974833</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>33</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1515010449.148668</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3409442131.995767</v>
+        <v>3756519727.147806</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09216127354050385</v>
+        <v>0.1328811745753815</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04003521649093229</v>
+        <v>0.0421870929296722</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>44</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1704721112.736184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4338785174.934277</v>
+        <v>3848587631.192699</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1274315960102322</v>
+        <v>0.1454163654177205</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03563836117571157</v>
+        <v>0.03691765715067986</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>64</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2169392580.803058</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1762220646.31281</v>
+        <v>1495091689.989789</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1160889113027763</v>
+        <v>0.1087331056832364</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03294952513814785</v>
+        <v>0.03645497257638634</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>881110333.470064</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1204215954.215865</v>
+        <v>1237247991.976782</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1015257963514899</v>
+        <v>0.1107016211429043</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03653442792693508</v>
+        <v>0.03372719605652354</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>602107927.5408946</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1724059522.183626</v>
+        <v>1642360374.438869</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08383382131320087</v>
+        <v>0.07260291089972552</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03850836310716936</v>
+        <v>0.02388798591992607</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>862029875.8210648</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2271843593.506006</v>
+        <v>2779660478.391862</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1645319946403996</v>
+        <v>0.2092655608289556</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04395152947644044</v>
+        <v>0.06102701426369878</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>42</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1135921854.34321</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1099272039.826058</v>
+        <v>1025433235.883804</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07379268567213511</v>
+        <v>0.07524752990261768</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02372924732041626</v>
+        <v>0.02684359119709573</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>549636041.4164208</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>992505096.1515801</v>
+        <v>906142737.2373694</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1018012801950687</v>
+        <v>0.08391765502762075</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03291804959493869</v>
+        <v>0.03163029651732042</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>496252568.2562444</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3124386512.168373</v>
+        <v>2762261312.187819</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1131644839617706</v>
+        <v>0.1674561279858495</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02349823738951121</v>
+        <v>0.01905854664059958</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>34</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1562193227.996979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2855621712.809009</v>
+        <v>1961885806.859149</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07524498569243113</v>
+        <v>0.09680056413062689</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02723677837212302</v>
+        <v>0.03300389946453236</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>37</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1427811001.330526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1799699243.259848</v>
+        <v>2056513106.243095</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1158337639395158</v>
+        <v>0.1056552252533182</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02551478562417883</v>
+        <v>0.03563577357314116</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>899849628.5086318</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1428125903.562514</v>
+        <v>1652354283.093686</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1780016605429995</v>
+        <v>0.1444443414892974</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02816484326792029</v>
+        <v>0.02816626289465487</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>714063033.080936</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1660708709.198326</v>
+        <v>1141366885.819118</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1355118012142367</v>
+        <v>0.1597360708981624</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03734540061325592</v>
+        <v>0.05702014191644347</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>830354280.5173101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2164136486.924582</v>
+        <v>1969822292.582584</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1170543029336733</v>
+        <v>0.1471150934432767</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03980940053063867</v>
+        <v>0.04132171680191715</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>34</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1082068301.543949</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4236183885.646117</v>
+        <v>3953251149.495987</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09373663952593712</v>
+        <v>0.09076004737028431</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04627605000582949</v>
+        <v>0.04502924695354481</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>45</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2118091988.326969</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2910751066.957092</v>
+        <v>1984088855.067887</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1358181487377996</v>
+        <v>0.1840037177578266</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02457070470764512</v>
+        <v>0.01909141226764056</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>46</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1455375540.774309</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1750084920.145325</v>
+        <v>2030866193.537966</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1024659330944916</v>
+        <v>0.09135487060071433</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0274782114806487</v>
+        <v>0.03277825716819624</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>875042516.4995533</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1634935607.908937</v>
+        <v>2051698996.962891</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1875180615501314</v>
+        <v>0.1858714263759412</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03640756496237056</v>
+        <v>0.04488715591557121</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>817467757.9701205</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5213111639.529538</v>
+        <v>3818340771.233254</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1301818538264904</v>
+        <v>0.155163464141417</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05610386355847092</v>
+        <v>0.05934579265749457</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>49</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2606555858.704605</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5143858587.993728</v>
+        <v>5167313693.183191</v>
       </c>
       <c r="F47" t="n">
-        <v>0.129816488446255</v>
+        <v>0.128931029647114</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0396925810055812</v>
+        <v>0.03686323266822566</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>37</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2571929357.906024</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2910063117.791609</v>
+        <v>4341419114.290628</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1001745456777456</v>
+        <v>0.07515722069286031</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02797814825318951</v>
+        <v>0.0305244009641779</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>48</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1455031656.541732</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1293750677.603266</v>
+        <v>1462069257.828393</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1868940863113951</v>
+        <v>0.1533753788122795</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03051993007300453</v>
+        <v>0.03913198414943365</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>646875402.8634559</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3507511082.007304</v>
+        <v>3169316067.820027</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1645896402369347</v>
+        <v>0.1437915477932381</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05288613617598789</v>
+        <v>0.04657630773541439</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>47</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1753755564.679511</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1079862025.739509</v>
+        <v>1138340210.636311</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1257813899576755</v>
+        <v>0.1519638074150281</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05030543114717898</v>
+        <v>0.03782321140224645</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>539931083.8463284</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3488820089.276998</v>
+        <v>4543684630.284127</v>
       </c>
       <c r="F52" t="n">
-        <v>0.123833202672256</v>
+        <v>0.1069276699585824</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03957987011222503</v>
+        <v>0.06163628795643748</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>57</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1744410131.163479</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3345666328.848096</v>
+        <v>3598100322.174881</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1977305330305821</v>
+        <v>0.1329421358991352</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03249440666754708</v>
+        <v>0.02673696855316001</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>39</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1672833172.982197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4896305145.582927</v>
+        <v>3135536755.950575</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1251680418535904</v>
+        <v>0.1253275891968777</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03705142601371927</v>
+        <v>0.05024219140000708</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>45</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2448152707.193709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4316507317.654292</v>
+        <v>4889397106.654488</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1472674232284843</v>
+        <v>0.2150097872958436</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02713000853725573</v>
+        <v>0.02454238194989197</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>37</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2158253647.644883</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1633214791.665713</v>
+        <v>1812309210.599879</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1238702712361126</v>
+        <v>0.1596502459049884</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05472940303949086</v>
+        <v>0.05130435541978615</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>816607418.3212286</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4375225222.796778</v>
+        <v>3998079360.473573</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1717343078910202</v>
+        <v>0.1144498764788848</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02686741282160037</v>
+        <v>0.0187792591766812</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>44</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2187612731.22368</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1768360583.807889</v>
+        <v>1573902356.904361</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1603633288400892</v>
+        <v>0.1743020475640445</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02880457937306033</v>
+        <v>0.03093373196512293</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>884180298.5023447</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4139577902.749024</v>
+        <v>4563095663.497478</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1256948845378562</v>
+        <v>0.09999664891870576</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04311838115991443</v>
+        <v>0.04211585482910317</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>40</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2069788920.557616</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3074275655.764765</v>
+        <v>3252157705.533164</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1848637031280472</v>
+        <v>0.1961557512312905</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02366174826079008</v>
+        <v>0.02248810351774198</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>45</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1537137905.982237</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2640688851.716799</v>
+        <v>2091832054.539462</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1639475896496301</v>
+        <v>0.1326187413895328</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02951505455869669</v>
+        <v>0.02751913574769755</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>48</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1320344440.16534</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1805090588.716663</v>
+        <v>2113931862.883017</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1904951609613003</v>
+        <v>0.1324944807777676</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04244933946781489</v>
+        <v>0.03545322097027045</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>902545323.1584859</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5161131083.275813</v>
+        <v>4086871771.473718</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08373315269394734</v>
+        <v>0.09765915145901879</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04603309184873455</v>
+        <v>0.03431296436670451</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>39</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2580565552.165604</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4764554961.167955</v>
+        <v>3995920007.947588</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1252738735967674</v>
+        <v>0.1914949162279832</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03122707386764489</v>
+        <v>0.0308394457860136</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>43</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2382277570.169668</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5763619478.655806</v>
+        <v>5738164274.789493</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1615834028910701</v>
+        <v>0.1285202956579726</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02127916976108036</v>
+        <v>0.02539323868784559</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>49</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2881809652.635831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4178090875.582566</v>
+        <v>4795641599.933148</v>
       </c>
       <c r="F66" t="n">
-        <v>0.103985463190157</v>
+        <v>0.1570725923349189</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03746963257727432</v>
+        <v>0.03587385248650356</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>40</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2089045420.871255</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3481019242.904121</v>
+        <v>2904310181.775826</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09869326296026772</v>
+        <v>0.08181762370959908</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03323148902427501</v>
+        <v>0.03539988637617331</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>44</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1740509598.919793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5935240662.604652</v>
+        <v>4410469368.046946</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1127253910842142</v>
+        <v>0.1062383229197063</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03303385078884007</v>
+        <v>0.03171015853104469</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>44</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2967620444.326009</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2042015252.911729</v>
+        <v>1676241417.509362</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1707496103387365</v>
+        <v>0.1298330383162664</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04976334712065933</v>
+        <v>0.05858262710779118</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1021007636.786751</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3253607563.14464</v>
+        <v>3707232829.274399</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09152418301467487</v>
+        <v>0.08167771335678146</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04817305270605447</v>
+        <v>0.03306767333769913</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>39</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1626803774.997999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5660754973.448267</v>
+        <v>3952944609.938222</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1300881975407391</v>
+        <v>0.1525567726365675</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02737232484756989</v>
+        <v>0.02996757192196029</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>50</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2830377641.704881</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1953502103.170198</v>
+        <v>1861426524.040947</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08779782187097494</v>
+        <v>0.1039168816496614</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04695968207121565</v>
+        <v>0.04803373602455999</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>976751005.3534198</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2173194842.682378</v>
+        <v>3359108271.778026</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07124398047273894</v>
+        <v>0.07954334940262808</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03773054286655336</v>
+        <v>0.04262812248578905</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>52</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1086597492.981246</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3055407381.172894</v>
+        <v>2689394717.122181</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1668252290649537</v>
+        <v>0.1841392361252535</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02418491957205416</v>
+        <v>0.029304015338888</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>48</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1527703751.115785</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1647927664.398543</v>
+        <v>1985689367.423546</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1076213429193549</v>
+        <v>0.1217533426931144</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02572281202456211</v>
+        <v>0.0326777256783617</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>823963829.3226022</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3406536881.112738</v>
+        <v>4390267111.218921</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1025711766117321</v>
+        <v>0.1204574678583661</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02558938093882069</v>
+        <v>0.02482740630078635</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>31</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1703268400.30157</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2114450485.568081</v>
+        <v>2180598906.863754</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1506125015493451</v>
+        <v>0.1718951229329471</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01937699341197576</v>
+        <v>0.02791446649265937</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1057225321.156305</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4627130865.675208</v>
+        <v>4708565019.215261</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1130013267341708</v>
+        <v>0.1347072152167331</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04326303362879933</v>
+        <v>0.0472687250786881</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>49</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2313565353.656987</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1238600270.063265</v>
+        <v>1293920302.752759</v>
       </c>
       <c r="F79" t="n">
-        <v>0.130646639904978</v>
+        <v>0.1386305856801635</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02564702573052927</v>
+        <v>0.02570503505499074</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>619300123.4856247</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4751598403.118116</v>
+        <v>4407709914.878064</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08942637864357914</v>
+        <v>0.07572187109751567</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03689721228883328</v>
+        <v>0.0360028830554263</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>29</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2375799238.359556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4783652972.161119</v>
+        <v>3184731262.961774</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08557911831870024</v>
+        <v>0.1003575932592713</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02541223000570008</v>
+        <v>0.0314129445833371</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>30</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2391826478.3246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3445314610.782904</v>
+        <v>3850221069.548591</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1886175376264767</v>
+        <v>0.1884404817278413</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02541812531042574</v>
+        <v>0.01915592126756457</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>51</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1722657376.072602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1682829386.980612</v>
+        <v>1613713760.602901</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1086568508651711</v>
+        <v>0.1396296792107245</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03400654605998641</v>
+        <v>0.04014957791436758</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>841414639.312569</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1832990564.002872</v>
+        <v>2600070743.024385</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1163681405876416</v>
+        <v>0.08845111168381187</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0465746608393839</v>
+        <v>0.03926304849399344</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>916495311.4073745</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2340742092.577136</v>
+        <v>3629964543.284</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1485218539930734</v>
+        <v>0.1406810106772178</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05554201601008393</v>
+        <v>0.04134819963958211</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>52</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1170371033.632032</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2642058414.585475</v>
+        <v>2117702442.095737</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1042720625138444</v>
+        <v>0.1512242161619739</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02671627210719465</v>
+        <v>0.01993179544477588</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>14</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1321029324.156919</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1067330205.916284</v>
+        <v>1154760026.820521</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1254839909819208</v>
+        <v>0.1250855673147121</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04434143749365847</v>
+        <v>0.04433510883862682</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>533665124.4929064</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2721799263.473917</v>
+        <v>3143386587.093818</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1084747063037506</v>
+        <v>0.1399247427598065</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02617640892989029</v>
+        <v>0.02469211863837007</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>55</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1360899634.642124</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3076740345.052859</v>
+        <v>2966133597.341686</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1414750232493636</v>
+        <v>0.1587835204137344</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02780974990883554</v>
+        <v>0.03269560488419725</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>48</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1538370204.97251</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1871359458.347197</v>
+        <v>1635567700.913955</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1198582196562217</v>
+        <v>0.08426829088643328</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0518147723791918</v>
+        <v>0.04738800747244298</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>935679775.8307673</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1397498060.124606</v>
+        <v>1477533201.551319</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1341916953754254</v>
+        <v>0.189893558583994</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03880243841344292</v>
+        <v>0.05887076459636129</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>698749082.6016957</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2556671399.967824</v>
+        <v>1978040961.157285</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08086231567160118</v>
+        <v>0.08971286282816837</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04652756585676898</v>
+        <v>0.04391232399227855</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>32</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1278335688.159854</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3920743723.741058</v>
+        <v>4613787561.645907</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1254062806334978</v>
+        <v>0.09671986569201114</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03623017692907141</v>
+        <v>0.04717340459337065</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>41</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1960371867.587573</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2045707874.17767</v>
+        <v>2336025049.183459</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1193761626441003</v>
+        <v>0.1226774793908269</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02756932392235514</v>
+        <v>0.02613514518905982</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1022853941.317167</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2355590052.411812</v>
+        <v>2087994013.938823</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09423356900388048</v>
+        <v>0.08374999795958056</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0511836281349092</v>
+        <v>0.04186792374828655</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>33</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1177795072.763408</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1806731668.042681</v>
+        <v>2020501606.754802</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1345797586070006</v>
+        <v>0.1068598288229122</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04020410863403209</v>
+        <v>0.03008354647137566</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>903365841.5901766</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3511791829.32736</v>
+        <v>3967671271.094861</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1306848431392695</v>
+        <v>0.1089646482355215</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0195946295130373</v>
+        <v>0.02531077952229142</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>46</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1755895931.732928</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2997692381.863463</v>
+        <v>2974937562.638463</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1060778692555648</v>
+        <v>0.08724856536104816</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02279351135761057</v>
+        <v>0.02975556576383981</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>36</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1498846175.440149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3058349954.181042</v>
+        <v>3423314178.614354</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1222759511184207</v>
+        <v>0.09061741329462138</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02801776182686643</v>
+        <v>0.02230093279416469</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>43</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1529174967.259976</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3439756277.365113</v>
+        <v>4687143609.410771</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1393450144909345</v>
+        <v>0.1108786824640135</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01760563305329536</v>
+        <v>0.02184000016618964</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>42</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1719878164.600219</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3064998821.988272</v>
+        <v>2831803725.784452</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1505550060020575</v>
+        <v>0.1620251164616829</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05126639364591903</v>
+        <v>0.04987344210911056</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>57</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1532499508.601872</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_138.xlsx
+++ b/output/fit_clients/fit_round_138.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2342582283.829149</v>
+        <v>1924858690.651212</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1105101620129608</v>
+        <v>0.08710537358352531</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03187934100610561</v>
+        <v>0.03515325169755285</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2525885780.624137</v>
+        <v>2039654588.094827</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1413506055285064</v>
+        <v>0.1627798556997589</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04442967691617299</v>
+        <v>0.03052686229482545</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4567189834.656694</v>
+        <v>3237027982.22049</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1300852751273671</v>
+        <v>0.1144808046728495</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03090702920001469</v>
+        <v>0.03597995616616697</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3432502318.221601</v>
+        <v>3602024301.926325</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07418008899546592</v>
+        <v>0.0976641988639647</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03785953054066227</v>
+        <v>0.04578824618564738</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2613026327.149295</v>
+        <v>1961169331.171698</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09607388320343871</v>
+        <v>0.1017238271898889</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05061737404190321</v>
+        <v>0.04324336159619997</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3128496467.959508</v>
+        <v>2730332052.620838</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06483961173802361</v>
+        <v>0.06328005170585793</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03947080625083735</v>
+        <v>0.0322736457463975</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2778702136.854228</v>
+        <v>2435107705.528115</v>
       </c>
       <c r="F8" t="n">
-        <v>0.144173365583593</v>
+        <v>0.1875801034623069</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03031034353019444</v>
+        <v>0.02822520930221531</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1529349179.451154</v>
+        <v>2006329208.917384</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1612248873248625</v>
+        <v>0.1798248486145674</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02360274768017257</v>
+        <v>0.03182640706464273</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4477856683.548877</v>
+        <v>5739397620.879705</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1347257590382741</v>
+        <v>0.1836914685539029</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04768061999511507</v>
+        <v>0.04527896855807083</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2782638355.528148</v>
+        <v>3626546352.84574</v>
       </c>
       <c r="F11" t="n">
-        <v>0.15045000895339</v>
+        <v>0.1528713823364752</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03777605717069994</v>
+        <v>0.04141965428426505</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2502651664.663303</v>
+        <v>3188851682.168069</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1818849678472597</v>
+        <v>0.1418432247431612</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04812634052054791</v>
+        <v>0.05226814628602534</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3227745948.194607</v>
+        <v>3473978518.993438</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0780372449564001</v>
+        <v>0.08379545228468091</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01939980830991704</v>
+        <v>0.02923601387512248</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2648284089.759058</v>
+        <v>3333089237.698256</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1603935190582469</v>
+        <v>0.1733756369712059</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03805459713207001</v>
+        <v>0.0386429810709959</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1473286957.014042</v>
+        <v>1335881777.606407</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1046022154098521</v>
+        <v>0.0761612986790112</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03813156498680381</v>
+        <v>0.0436267105925397</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2703414241.890026</v>
+        <v>2901104613.163545</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09035577143164097</v>
+        <v>0.07115950038601258</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04610729317075147</v>
+        <v>0.0425839017626856</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5180572100.957458</v>
+        <v>4964347179.8402</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1068277848057616</v>
+        <v>0.1732253640554215</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0409134016627213</v>
+        <v>0.04382889263454642</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2975574555.055779</v>
+        <v>3016618615.340733</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1537410201630472</v>
+        <v>0.137482108211557</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0321255802937441</v>
+        <v>0.02479796422915325</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1009236905.530905</v>
+        <v>1025750831.047958</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1809924760956961</v>
+        <v>0.1395589794564083</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02639672931312857</v>
+        <v>0.0166709932925336</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2676612524.274839</v>
+        <v>2658105267.879726</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1527702518547256</v>
+        <v>0.1508898652440145</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03182663741205033</v>
+        <v>0.02871257925045343</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2500862380.285259</v>
+        <v>2268708233.767335</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06198653999732644</v>
+        <v>0.07300437665615754</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04192781967437374</v>
+        <v>0.04188385902520458</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2939893481.045524</v>
+        <v>3951264148.760461</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1265832736877671</v>
+        <v>0.08837118798736364</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04815705999765267</v>
+        <v>0.0497904767516374</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1386782891.746867</v>
+        <v>1032045132.676722</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1165702692789127</v>
+        <v>0.1177599930842921</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03750942954761862</v>
+        <v>0.04274090084241128</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4052309979.2063</v>
+        <v>3897367553.973821</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1389031776223176</v>
+        <v>0.1348348526786222</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03005727652515682</v>
+        <v>0.03045673400888348</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1086426929.791003</v>
+        <v>1028189964.172105</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08742335497622401</v>
+        <v>0.07683864580005197</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02705796065506463</v>
+        <v>0.02417813802605774</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1314803766.655888</v>
+        <v>1316458295.679597</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09282161274847386</v>
+        <v>0.1244167547345022</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03033389739656264</v>
+        <v>0.0351192551144878</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4036211352.717535</v>
+        <v>3107570616.690683</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1397136292735949</v>
+        <v>0.1018463748776181</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0233446664974833</v>
+        <v>0.02187877734896973</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3756519727.147806</v>
+        <v>3457854061.864388</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1328811745753815</v>
+        <v>0.1189598272473665</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0421870929296722</v>
+        <v>0.03596680229954259</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3848587631.192699</v>
+        <v>5534565079.897682</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1454163654177205</v>
+        <v>0.1440969448155821</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03691765715067986</v>
+        <v>0.03111579541923327</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1495091689.989789</v>
+        <v>1750944748.408917</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1087331056832364</v>
+        <v>0.08620870439991921</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03645497257638634</v>
+        <v>0.03286925565757028</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1237247991.976782</v>
+        <v>1017456122.490812</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1107016211429043</v>
+        <v>0.09068906201207923</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03372719605652354</v>
+        <v>0.03458720192730532</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1642360374.438869</v>
+        <v>1470914383.106225</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07260291089972552</v>
+        <v>0.08695517987371672</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02388798591992607</v>
+        <v>0.03142758228294753</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2779660478.391862</v>
+        <v>2698753496.696858</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2092655608289556</v>
+        <v>0.1782638808967975</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06102701426369878</v>
+        <v>0.05155020699179579</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1025433235.883804</v>
+        <v>1062688042.777373</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07524752990261768</v>
+        <v>0.09833662841740198</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02684359119709573</v>
+        <v>0.0216356327688564</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>906142737.2373694</v>
+        <v>1291244688.607476</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08391765502762075</v>
+        <v>0.1026134801114718</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03163029651732042</v>
+        <v>0.03429372408955179</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2762261312.187819</v>
+        <v>2078624052.643144</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1674561279858495</v>
+        <v>0.119597521941723</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01905854664059958</v>
+        <v>0.0214265410666673</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1961885806.859149</v>
+        <v>1910455635.703011</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09680056413062689</v>
+        <v>0.09692040008818814</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03300389946453236</v>
+        <v>0.03226888464254098</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2056513106.243095</v>
+        <v>1370790694.035136</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1056552252533182</v>
+        <v>0.0892370285823898</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03563577357314116</v>
+        <v>0.03149206925456321</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1652354283.093686</v>
+        <v>1984193976.080999</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1444443414892974</v>
+        <v>0.1713835514855133</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02816626289465487</v>
+        <v>0.02064512417593542</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1141366885.819118</v>
+        <v>1779822801.478492</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1597360708981624</v>
+        <v>0.1332370737683897</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05702014191644347</v>
+        <v>0.05763937526875682</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1969822292.582584</v>
+        <v>2258021421.641144</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1471150934432767</v>
+        <v>0.1426451081683563</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04132171680191715</v>
+        <v>0.03065020876455126</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3953251149.495987</v>
+        <v>3261198148.761847</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09076004737028431</v>
+        <v>0.1123185019443703</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04502924695354481</v>
+        <v>0.03853462405991397</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1984088855.067887</v>
+        <v>2031188869.266136</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1840037177578266</v>
+        <v>0.173696979871537</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01909141226764056</v>
+        <v>0.01964627387457234</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2030866193.537966</v>
+        <v>2150727104.841469</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09135487060071433</v>
+        <v>0.09428461196424671</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03277825716819624</v>
+        <v>0.02764343895407316</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2051698996.962891</v>
+        <v>2405754660.837813</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1858714263759412</v>
+        <v>0.139540546431172</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04488715591557121</v>
+        <v>0.04231420414283647</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3818340771.233254</v>
+        <v>5396877597.230527</v>
       </c>
       <c r="F46" t="n">
-        <v>0.155163464141417</v>
+        <v>0.1350557996355898</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05934579265749457</v>
+        <v>0.04819741087916456</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5167313693.183191</v>
+        <v>4433424122.329177</v>
       </c>
       <c r="F47" t="n">
-        <v>0.128931029647114</v>
+        <v>0.165789202981549</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03686323266822566</v>
+        <v>0.03860347687052751</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4341419114.290628</v>
+        <v>2909947010.546925</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07515722069286031</v>
+        <v>0.09911116514743387</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0305244009641779</v>
+        <v>0.03589709774256944</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1462069257.828393</v>
+        <v>1225547641.393471</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1533753788122795</v>
+        <v>0.1578099686165676</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03913198414943365</v>
+        <v>0.04311163999795559</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3169316067.820027</v>
+        <v>2540930429.302597</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1437915477932381</v>
+        <v>0.1756779684465217</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04657630773541439</v>
+        <v>0.0433959653178725</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1138340210.636311</v>
+        <v>1046361051.243617</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1519638074150281</v>
+        <v>0.1628422169697498</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03782321140224645</v>
+        <v>0.03680245246621393</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4543684630.284127</v>
+        <v>3694592535.0705</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1069276699585824</v>
+        <v>0.08923550445960877</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06163628795643748</v>
+        <v>0.04749057417327358</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3598100322.174881</v>
+        <v>2645424660.92083</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1329421358991352</v>
+        <v>0.2038212217693106</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02673696855316001</v>
+        <v>0.03320818999923439</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3135536755.950575</v>
+        <v>4025469040.714118</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1253275891968777</v>
+        <v>0.1044936236681113</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05024219140000708</v>
+        <v>0.04437452476519749</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4889397106.654488</v>
+        <v>4559944448.308486</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2150097872958436</v>
+        <v>0.1369629522583369</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02454238194989197</v>
+        <v>0.02804139216835602</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1812309210.599879</v>
+        <v>1302279116.701856</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1596502459049884</v>
+        <v>0.1170963694040765</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05130435541978615</v>
+        <v>0.05725275510870646</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3998079360.473573</v>
+        <v>4495290147.336121</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1144498764788848</v>
+        <v>0.1533715333286712</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0187792591766812</v>
+        <v>0.0209304741573768</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1573902356.904361</v>
+        <v>1379672096.120694</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1743020475640445</v>
+        <v>0.1289256950031314</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03093373196512293</v>
+        <v>0.0384919178050859</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4563095663.497478</v>
+        <v>3292854561.89045</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09999664891870576</v>
+        <v>0.1168910594663734</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04211585482910317</v>
+        <v>0.04418808012186619</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3252157705.533164</v>
+        <v>3485717044.015056</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1961557512312905</v>
+        <v>0.1379602017594076</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02248810351774198</v>
+        <v>0.0240927762055275</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2091832054.539462</v>
+        <v>3220691573.834118</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1326187413895328</v>
+        <v>0.1549255369779283</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02751913574769755</v>
+        <v>0.02407544454771286</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2113931862.883017</v>
+        <v>2055230229.895673</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1324944807777676</v>
+        <v>0.150791801607956</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03545322097027045</v>
+        <v>0.03800825528215223</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4086871771.473718</v>
+        <v>4104640175.486096</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09765915145901879</v>
+        <v>0.07812173804400245</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03431296436670451</v>
+        <v>0.04273727387733631</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3995920007.947588</v>
+        <v>3680960304.866937</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1914949162279832</v>
+        <v>0.1690114165071206</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0308394457860136</v>
+        <v>0.02335487952487781</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5738164274.789493</v>
+        <v>4162126522.429657</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1285202956579726</v>
+        <v>0.1217816224626588</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02539323868784559</v>
+        <v>0.03154906576550377</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4795641599.933148</v>
+        <v>5343156963.133477</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1570725923349189</v>
+        <v>0.1348780604390567</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03587385248650356</v>
+        <v>0.0358257437781778</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2904310181.775826</v>
+        <v>2547507388.297097</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08181762370959908</v>
+        <v>0.06930362641155513</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03539988637617331</v>
+        <v>0.04882064891839526</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4410469368.046946</v>
+        <v>5741807429.718634</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1062383229197063</v>
+        <v>0.1026216910129642</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03171015853104469</v>
+        <v>0.04369790543656719</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1676241417.509362</v>
+        <v>1835474720.417894</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1298330383162664</v>
+        <v>0.1755380495639423</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05858262710779118</v>
+        <v>0.04331038838103639</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3707232829.274399</v>
+        <v>3537087207.682513</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08167771335678146</v>
+        <v>0.09256913675867845</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03306767333769913</v>
+        <v>0.03189199878723724</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3952944609.938222</v>
+        <v>3876807488.029174</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1525567726365675</v>
+        <v>0.1784331154722308</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02996757192196029</v>
+        <v>0.03023175721860743</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1861426524.040947</v>
+        <v>1885314248.149951</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1039168816496614</v>
+        <v>0.07495855939893707</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04803373602455999</v>
+        <v>0.03746175431431795</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3359108271.778026</v>
+        <v>3391320099.057209</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07954334940262808</v>
+        <v>0.1127478887353599</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04262812248578905</v>
+        <v>0.0450150177640335</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2689394717.122181</v>
+        <v>3833948890.838258</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1841392361252535</v>
+        <v>0.172077779808225</v>
       </c>
       <c r="G74" t="n">
-        <v>0.029304015338888</v>
+        <v>0.0316129954346698</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1985689367.423546</v>
+        <v>2130105217.002232</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1217533426931144</v>
+        <v>0.1455600649075319</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0326777256783617</v>
+        <v>0.03371171794003174</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4390267111.218921</v>
+        <v>4365010487.061734</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1204574678583661</v>
+        <v>0.1099691949032722</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02482740630078635</v>
+        <v>0.02481143700815893</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2180598906.863754</v>
+        <v>2266745581.221746</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1718951229329471</v>
+        <v>0.1374984383063203</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02791446649265937</v>
+        <v>0.02810673762608597</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4708565019.215261</v>
+        <v>4506182486.818755</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1347072152167331</v>
+        <v>0.08247364137370244</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0472687250786881</v>
+        <v>0.05558220164881233</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1293920302.752759</v>
+        <v>1210351608.772763</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1386305856801635</v>
+        <v>0.1119120102594936</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02570503505499074</v>
+        <v>0.04035319632607546</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4407709914.878064</v>
+        <v>3583340314.489481</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07572187109751567</v>
+        <v>0.08485289963188337</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0360028830554263</v>
+        <v>0.02500493968622746</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3184731262.961774</v>
+        <v>3414006023.551476</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1003575932592713</v>
+        <v>0.1238968681125107</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0314129445833371</v>
+        <v>0.03245863148685193</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3850221069.548591</v>
+        <v>5223852848.125529</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1884404817278413</v>
+        <v>0.1481006568993657</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01915592126756457</v>
+        <v>0.02472108434443396</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1613713760.602901</v>
+        <v>1905260423.568022</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1396296792107245</v>
+        <v>0.1015128447333744</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04014957791436758</v>
+        <v>0.0336247541212437</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2600070743.024385</v>
+        <v>2028960420.187201</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08845111168381187</v>
+        <v>0.1026016778020868</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03926304849399344</v>
+        <v>0.03620116027017257</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3629964543.284</v>
+        <v>2413156230.677269</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1406810106772178</v>
+        <v>0.1560624788119511</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04134819963958211</v>
+        <v>0.03495238450778484</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2117702442.095737</v>
+        <v>1712058859.171556</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1512242161619739</v>
+        <v>0.1377625255356923</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01993179544477588</v>
+        <v>0.01829602687215411</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1154760026.820521</v>
+        <v>1356980304.528287</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1250855673147121</v>
+        <v>0.1245051797280141</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04433510883862682</v>
+        <v>0.04360216544296005</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3143386587.093818</v>
+        <v>2705082258.286874</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1399247427598065</v>
+        <v>0.1421939127323311</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02469211863837007</v>
+        <v>0.02660453350174427</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2966133597.341686</v>
+        <v>3333928726.970295</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1587835204137344</v>
+        <v>0.1385730573102487</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03269560488419725</v>
+        <v>0.02790820462868913</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1635567700.913955</v>
+        <v>1433588991.012422</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08426829088643328</v>
+        <v>0.1020753385152075</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04738800747244298</v>
+        <v>0.04747498164620223</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1477533201.551319</v>
+        <v>2081424200.137521</v>
       </c>
       <c r="F91" t="n">
-        <v>0.189893558583994</v>
+        <v>0.1418482347804182</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05887076459636129</v>
+        <v>0.03864521997915489</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1978040961.157285</v>
+        <v>2032415961.465548</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08971286282816837</v>
+        <v>0.09305559399615022</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04391232399227855</v>
+        <v>0.04204225748061992</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4613787561.645907</v>
+        <v>3400287512.646794</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09671986569201114</v>
+        <v>0.1077629136974195</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04717340459337065</v>
+        <v>0.0358697367789965</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2336025049.183459</v>
+        <v>1714736609.766423</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1226774793908269</v>
+        <v>0.1379968370841072</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02613514518905982</v>
+        <v>0.02735338085359978</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2087994013.938823</v>
+        <v>3121681107.145312</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08374999795958056</v>
+        <v>0.1096948407396281</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04186792374828655</v>
+        <v>0.03909045284478395</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2020501606.754802</v>
+        <v>1856721247.766225</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1068598288229122</v>
+        <v>0.1084026701251809</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03008354647137566</v>
+        <v>0.04662794118527918</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3967671271.094861</v>
+        <v>5151283764.447214</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1089646482355215</v>
+        <v>0.1665121558401743</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02531077952229142</v>
+        <v>0.02289555853911766</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2974937562.638463</v>
+        <v>3427424069.122801</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08724856536104816</v>
+        <v>0.08382580575434352</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02975556576383981</v>
+        <v>0.02724630982815286</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3423314178.614354</v>
+        <v>2098216372.238727</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09061741329462138</v>
+        <v>0.1340143593334205</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02230093279416469</v>
+        <v>0.02817758303694504</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4687143609.410771</v>
+        <v>3475579948.338515</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1108786824640135</v>
+        <v>0.1465280911696867</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02184000016618964</v>
+        <v>0.0261616042309663</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2831803725.784452</v>
+        <v>2178639587.884294</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1620251164616829</v>
+        <v>0.1814568335745353</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04987344210911056</v>
+        <v>0.04310903988390263</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_138.xlsx
+++ b/output/fit_clients/fit_round_138.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1924858690.651212</v>
+        <v>1566521344.678403</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08710537358352531</v>
+        <v>0.09916436567307794</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03515325169755285</v>
+        <v>0.03916967131571154</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2039654588.094827</v>
+        <v>2630762934.446295</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1627798556997589</v>
+        <v>0.1168956107756609</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03052686229482545</v>
+        <v>0.03835873667740657</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3237027982.22049</v>
+        <v>4698657658.40209</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1144808046728495</v>
+        <v>0.1516936827575158</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03597995616616697</v>
+        <v>0.02847579132057859</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>79</v>
+      </c>
+      <c r="J4" t="n">
+        <v>138</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3602024301.926325</v>
+        <v>4256983533.992755</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0976641988639647</v>
+        <v>0.07031878630774764</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04578824618564738</v>
+        <v>0.03591338816478888</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>57</v>
+      </c>
+      <c r="J5" t="n">
+        <v>138</v>
+      </c>
+      <c r="K5" t="n">
+        <v>159.2728884247666</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1961169331.171698</v>
+        <v>2754404884.9688</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1017238271898889</v>
+        <v>0.1437768842876328</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04324336159619997</v>
+        <v>0.05101440721676449</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2730332052.620838</v>
+        <v>1949296504.482266</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06328005170585793</v>
+        <v>0.09375502641825499</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0322736457463975</v>
+        <v>0.0429829606260658</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2435107705.528115</v>
+        <v>2411838764.685408</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1875801034623069</v>
+        <v>0.2009486195360772</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02822520930221531</v>
+        <v>0.03024923592396176</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>41</v>
+      </c>
+      <c r="J8" t="n">
+        <v>136</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2006329208.917384</v>
+        <v>1796015617.331887</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1798248486145674</v>
+        <v>0.1427165651178602</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03182640706464273</v>
+        <v>0.0373007935411221</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5739397620.879705</v>
+        <v>5839796417.090405</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1836914685539029</v>
+        <v>0.1305623663350937</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04527896855807083</v>
+        <v>0.04563309603880307</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>126</v>
+      </c>
+      <c r="J10" t="n">
+        <v>138</v>
+      </c>
+      <c r="K10" t="n">
+        <v>157.2501815190011</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3626546352.84574</v>
+        <v>3480399921.845255</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1528713823364752</v>
+        <v>0.1210022359138406</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04141965428426505</v>
+        <v>0.04668494058605527</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>59</v>
+      </c>
+      <c r="J11" t="n">
+        <v>138</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3188851682.168069</v>
+        <v>2402213086.19844</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1418432247431612</v>
+        <v>0.1484522136116176</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05226814628602534</v>
+        <v>0.03630943776136417</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3473978518.993438</v>
+        <v>4156527624.931057</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08379545228468091</v>
+        <v>0.07067527616730823</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02923601387512248</v>
+        <v>0.02014496571978034</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>67</v>
+      </c>
+      <c r="J13" t="n">
+        <v>138</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,16 +925,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3333089237.698256</v>
+        <v>2897934298.282717</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1733756369712059</v>
+        <v>0.1296142462198377</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0386429810709959</v>
+        <v>0.04312934915923482</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>137</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64.60939734682178</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1335881777.606407</v>
+        <v>1301544588.957892</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0761612986790112</v>
+        <v>0.07584624789108851</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0436267105925397</v>
+        <v>0.04111313784637363</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2901104613.163545</v>
+        <v>2089423764.127593</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07115950038601258</v>
+        <v>0.09874791874817562</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0425839017626856</v>
+        <v>0.03548305057163401</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1032,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4964347179.8402</v>
+        <v>4547844758.589659</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1732253640554215</v>
+        <v>0.1504673703867447</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04382889263454642</v>
+        <v>0.0341922830451498</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>66</v>
+      </c>
+      <c r="J17" t="n">
+        <v>138</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3016618615.340733</v>
+        <v>3250004485.954691</v>
       </c>
       <c r="F18" t="n">
-        <v>0.137482108211557</v>
+        <v>0.1655928477352529</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02479796422915325</v>
+        <v>0.0292193542549649</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>36</v>
+      </c>
+      <c r="J18" t="n">
+        <v>135</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1025750831.047958</v>
+        <v>922653729.2107025</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1395589794564083</v>
+        <v>0.142258989917786</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0166709932925336</v>
+        <v>0.01946659236345672</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2658105267.879726</v>
+        <v>2223416374.039391</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1508898652440145</v>
+        <v>0.112886476073459</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02871257925045343</v>
+        <v>0.0213627948427875</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2268708233.767335</v>
+        <v>2321565112.493484</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07300437665615754</v>
+        <v>0.08741589176249083</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04188385902520458</v>
+        <v>0.02994574413839975</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3951264148.760461</v>
+        <v>2870213836.663343</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08837118798736364</v>
+        <v>0.1244529254838242</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0497904767516374</v>
+        <v>0.046265920893258</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>36</v>
+      </c>
+      <c r="J22" t="n">
+        <v>137</v>
+      </c>
+      <c r="K22" t="n">
+        <v>59.3789993917566</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1032045132.676722</v>
+        <v>1132253748.761645</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1177599930842921</v>
+        <v>0.1404833787102735</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04274090084241128</v>
+        <v>0.05228990487707778</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3897367553.973821</v>
+        <v>3734075517.713088</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1348348526786222</v>
+        <v>0.09317046091292604</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03045673400888348</v>
+        <v>0.0352196838831846</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>40</v>
+      </c>
+      <c r="J24" t="n">
+        <v>138</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1028189964.172105</v>
+        <v>934820255.4108332</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07683864580005197</v>
+        <v>0.1200230460980242</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02417813802605774</v>
+        <v>0.02237949874247412</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1316458295.679597</v>
+        <v>1302692968.306664</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1244167547345022</v>
+        <v>0.115153913976658</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0351192551144878</v>
+        <v>0.03329600229550145</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3107570616.690683</v>
+        <v>3953171413.779788</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1018463748776181</v>
+        <v>0.1039401725807685</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02187877734896973</v>
+        <v>0.01813748947822527</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>54</v>
+      </c>
+      <c r="J27" t="n">
+        <v>137</v>
+      </c>
+      <c r="K27" t="n">
+        <v>104.0039569272043</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3457854061.864388</v>
+        <v>3273947719.614661</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1189598272473665</v>
+        <v>0.09309692541390602</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03596680229954259</v>
+        <v>0.04315041486518993</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>29</v>
+      </c>
+      <c r="J28" t="n">
+        <v>130</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5534565079.897682</v>
+        <v>4480589269.399575</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1440969448155821</v>
+        <v>0.1187703915433306</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03111579541923327</v>
+        <v>0.04474190661057002</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>127</v>
+      </c>
+      <c r="J29" t="n">
+        <v>138</v>
+      </c>
+      <c r="K29" t="n">
+        <v>169.3873417203246</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1750944748.408917</v>
+        <v>2291890976.428571</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08620870439991921</v>
+        <v>0.1307516527301969</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03286925565757028</v>
+        <v>0.0279054781382926</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1017456122.490812</v>
+        <v>1349878137.314188</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09068906201207923</v>
+        <v>0.08212546213070605</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03458720192730532</v>
+        <v>0.04427663425192805</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1470914383.106225</v>
+        <v>1154365454.122508</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08695517987371672</v>
+        <v>0.07482144413821154</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03142758228294753</v>
+        <v>0.02499977574842805</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2698753496.696858</v>
+        <v>2461523469.259456</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1782638808967975</v>
+        <v>0.1851497864926471</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05155020699179579</v>
+        <v>0.06011956714379865</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1062688042.777373</v>
+        <v>1426270029.777102</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09833662841740198</v>
+        <v>0.1095181501684694</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0216356327688564</v>
+        <v>0.02648676270524053</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1291244688.607476</v>
+        <v>1261748278.117163</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1026134801114718</v>
+        <v>0.07491619099160365</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03429372408955179</v>
+        <v>0.04455668430632855</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2078624052.643144</v>
+        <v>3117244348.743067</v>
       </c>
       <c r="F36" t="n">
-        <v>0.119597521941723</v>
+        <v>0.1755508069240788</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0214265410666673</v>
+        <v>0.01877877620471046</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1910455635.703011</v>
+        <v>2281499644.25964</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09692040008818814</v>
+        <v>0.1110447179360951</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03226888464254098</v>
+        <v>0.03730773960525491</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1370790694.035136</v>
+        <v>1682101680.553843</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0892370285823898</v>
+        <v>0.1135290877135618</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03149206925456321</v>
+        <v>0.03365073872697486</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1984193976.080999</v>
+        <v>2065838538.352877</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1713835514855133</v>
+        <v>0.1438107302772343</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02064512417593542</v>
+        <v>0.02292785834344817</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1779822801.478492</v>
+        <v>1476133668.427438</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1332370737683897</v>
+        <v>0.1628633665961587</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05763937526875682</v>
+        <v>0.03659394529239903</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2258021421.641144</v>
+        <v>2439661937.683935</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1426451081683563</v>
+        <v>0.1076232368152246</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03065020876455126</v>
+        <v>0.02849511241615467</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3261198148.761847</v>
+        <v>3065041374.00472</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1123185019443703</v>
+        <v>0.1064160994137073</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03853462405991397</v>
+        <v>0.03610842407647562</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>51</v>
+      </c>
+      <c r="J42" t="n">
+        <v>135</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2031188869.266136</v>
+        <v>3067578821.660822</v>
       </c>
       <c r="F43" t="n">
-        <v>0.173696979871537</v>
+        <v>0.1587711759218699</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01964627387457234</v>
+        <v>0.02486384689618584</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2150727104.841469</v>
+        <v>1602606217.863957</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09428461196424671</v>
+        <v>0.0896975525945715</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02764343895407316</v>
+        <v>0.03361173599525525</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2405754660.837813</v>
+        <v>2066501823.756975</v>
       </c>
       <c r="F45" t="n">
-        <v>0.139540546431172</v>
+        <v>0.1220672069445292</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04231420414283647</v>
+        <v>0.03844141716766852</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2053,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5396877597.230527</v>
+        <v>3458215120.481593</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1350557996355898</v>
+        <v>0.1477190963556515</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04819741087916456</v>
+        <v>0.04791651144959828</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>78</v>
+      </c>
+      <c r="J46" t="n">
+        <v>136</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4433424122.329177</v>
+        <v>3229880222.543959</v>
       </c>
       <c r="F47" t="n">
-        <v>0.165789202981549</v>
+        <v>0.1912153009830326</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03860347687052751</v>
+        <v>0.04760664626730899</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>61</v>
+      </c>
+      <c r="J47" t="n">
+        <v>136</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2909947010.546925</v>
+        <v>3511363273.161068</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09911116514743387</v>
+        <v>0.1062333572009814</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03589709774256944</v>
+        <v>0.02420483692466857</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>57</v>
+      </c>
+      <c r="J48" t="n">
+        <v>137</v>
+      </c>
+      <c r="K48" t="n">
+        <v>99.53206570178142</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1225547641.393471</v>
+        <v>1307461665.486029</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1578099686165676</v>
+        <v>0.1847397417535328</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04311163999795559</v>
+        <v>0.03577623724873857</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2540930429.302597</v>
+        <v>3279547033.95568</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1756779684465217</v>
+        <v>0.1449104721720575</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0433959653178725</v>
+        <v>0.03808587362226462</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>47</v>
+      </c>
+      <c r="J50" t="n">
+        <v>137</v>
+      </c>
+      <c r="K50" t="n">
+        <v>84.86220922710822</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1046361051.243617</v>
+        <v>1175902957.062695</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1628422169697498</v>
+        <v>0.1813014619395985</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03680245246621393</v>
+        <v>0.04490923766253109</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3694592535.0705</v>
+        <v>4612813966.744548</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08923550445960877</v>
+        <v>0.08526479506564956</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04749057417327358</v>
+        <v>0.04336432487698309</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>104</v>
+      </c>
+      <c r="J52" t="n">
+        <v>137</v>
+      </c>
+      <c r="K52" t="n">
+        <v>145.8759119196331</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2298,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2645424660.92083</v>
+        <v>3040594440.392431</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2038212217693106</v>
+        <v>0.1859752880646112</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03320818999923439</v>
+        <v>0.0344274420007307</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>17</v>
+      </c>
+      <c r="J53" t="n">
+        <v>137</v>
+      </c>
+      <c r="K53" t="n">
+        <v>67.07486637392785</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +2341,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4025469040.714118</v>
+        <v>4457338046.347257</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1044936236681113</v>
+        <v>0.1478295581763681</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04437452476519749</v>
+        <v>0.04389697334885393</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>63</v>
+      </c>
+      <c r="J54" t="n">
+        <v>138</v>
+      </c>
+      <c r="K54" t="n">
+        <v>146.0682810707846</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4559944448.308486</v>
+        <v>4232933148.704543</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1369629522583369</v>
+        <v>0.1765079959311779</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02804139216835602</v>
+        <v>0.02508286473541617</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>63</v>
+      </c>
+      <c r="J55" t="n">
+        <v>138</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1302279116.701856</v>
+        <v>1273651491.920839</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1170963694040765</v>
+        <v>0.1287387763077708</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05725275510870646</v>
+        <v>0.05018711914232402</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4495290147.336121</v>
+        <v>4088594789.898919</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1533715333286712</v>
+        <v>0.1774088441218732</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0209304741573768</v>
+        <v>0.0185703487075235</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>55</v>
+      </c>
+      <c r="J57" t="n">
+        <v>138</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1379672096.120694</v>
+        <v>1293346993.174324</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1289256950031314</v>
+        <v>0.1252211482004782</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0384919178050859</v>
+        <v>0.02730113836712234</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3292854561.89045</v>
+        <v>4880183384.168806</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1168910594663734</v>
+        <v>0.1176138503502731</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04418808012186619</v>
+        <v>0.03389495717827796</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>67</v>
+      </c>
+      <c r="J59" t="n">
+        <v>137</v>
+      </c>
+      <c r="K59" t="n">
+        <v>136.0096282662429</v>
       </c>
     </row>
     <row r="60">
@@ -2110,16 +2555,25 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3485717044.015056</v>
+        <v>2523793021.112093</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1379602017594076</v>
+        <v>0.1938040360244145</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0240927762055275</v>
+        <v>0.03307953798090672</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>22</v>
+      </c>
+      <c r="J60" t="n">
+        <v>137</v>
+      </c>
+      <c r="K60" t="n">
+        <v>49.92115166235853</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3220691573.834118</v>
+        <v>3115509663.166083</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1549255369779283</v>
+        <v>0.1641715801469216</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02407544454771286</v>
+        <v>0.02403057995418327</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2055230229.895673</v>
+        <v>2021515861.748202</v>
       </c>
       <c r="F62" t="n">
-        <v>0.150791801607956</v>
+        <v>0.1228307525740481</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03800825528215223</v>
+        <v>0.0383916625747499</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4104640175.486096</v>
+        <v>4803943644.431917</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07812173804400245</v>
+        <v>0.09119529274855993</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04273727387733631</v>
+        <v>0.04314623305579247</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>67</v>
+      </c>
+      <c r="J63" t="n">
+        <v>138</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3680960304.866937</v>
+        <v>4751595445.039124</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1690114165071206</v>
+        <v>0.1919411729426375</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02335487952487781</v>
+        <v>0.0289748331147422</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>68</v>
+      </c>
+      <c r="J64" t="n">
+        <v>138</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4162126522.429657</v>
+        <v>5582741747.637099</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1217816224626588</v>
+        <v>0.1433161150562323</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03154906576550377</v>
+        <v>0.02378020288117532</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>115</v>
+      </c>
+      <c r="J65" t="n">
+        <v>138</v>
+      </c>
+      <c r="K65" t="n">
+        <v>147.1364531343323</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5343156963.133477</v>
+        <v>4840103623.825474</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1348780604390567</v>
+        <v>0.1451408161068178</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0358257437781778</v>
+        <v>0.03760998486310045</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>68</v>
+      </c>
+      <c r="J66" t="n">
+        <v>137</v>
+      </c>
+      <c r="K66" t="n">
+        <v>132.9821428731117</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2547507388.297097</v>
+        <v>2779273724.395558</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06930362641155513</v>
+        <v>0.1012950026481899</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04882064891839526</v>
+        <v>0.03609963432403895</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2841,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5741807429.718634</v>
+        <v>4486607363.616495</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1026216910129642</v>
+        <v>0.1474253152335176</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04369790543656719</v>
+        <v>0.05121021179992397</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>69</v>
+      </c>
+      <c r="J68" t="n">
+        <v>138</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2876,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1835474720.417894</v>
+        <v>2005245428.415431</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1755380495639423</v>
+        <v>0.1652485448318481</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04331038838103639</v>
+        <v>0.05621073892589801</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3537087207.682513</v>
+        <v>2673375392.44654</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09256913675867845</v>
+        <v>0.09040424785348002</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03189199878723724</v>
+        <v>0.03627992583326992</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>17</v>
+      </c>
+      <c r="J70" t="n">
+        <v>132</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3876807488.029174</v>
+        <v>4820441016.630908</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1784331154722308</v>
+        <v>0.1173846181471585</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03023175721860743</v>
+        <v>0.02263071585615179</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>111</v>
+      </c>
+      <c r="J71" t="n">
+        <v>137</v>
+      </c>
+      <c r="K71" t="n">
+        <v>145.0763054882061</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1885314248.149951</v>
+        <v>1444736286.224315</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07495855939893707</v>
+        <v>0.103359281513184</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03746175431431795</v>
+        <v>0.04093030812836327</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3391320099.057209</v>
+        <v>2493889927.942141</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1127478887353599</v>
+        <v>0.07943375247294851</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0450150177640335</v>
+        <v>0.03779738149314304</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3053,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3833948890.838258</v>
+        <v>3258108613.845394</v>
       </c>
       <c r="F74" t="n">
-        <v>0.172077779808225</v>
+        <v>0.1580018782627168</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0316129954346698</v>
+        <v>0.03279554075285891</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>45</v>
+      </c>
+      <c r="J74" t="n">
+        <v>136</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2130105217.002232</v>
+        <v>1772984464.734651</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1455600649075319</v>
+        <v>0.1662538370180925</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03371171794003174</v>
+        <v>0.03357521263261136</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4365010487.061734</v>
+        <v>3737400480.613895</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1099691949032722</v>
+        <v>0.108575040040612</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02481143700815893</v>
+        <v>0.02571814959493098</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>63</v>
+      </c>
+      <c r="J76" t="n">
+        <v>138</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2266745581.221746</v>
+        <v>1826685154.84014</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1374984383063203</v>
+        <v>0.1580928457725349</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02810673762608597</v>
+        <v>0.02091413484697163</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3193,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4506182486.818755</v>
+        <v>3699229686.080735</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08247364137370244</v>
+        <v>0.1103148831447766</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05558220164881233</v>
+        <v>0.04987526166747543</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>67</v>
+      </c>
+      <c r="J78" t="n">
+        <v>138</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1210351608.772763</v>
+        <v>1348581495.379762</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1119120102594936</v>
+        <v>0.1260225659080781</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04035319632607546</v>
+        <v>0.02899476294055083</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3263,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3583340314.489481</v>
+        <v>5039056991.156043</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08485289963188337</v>
+        <v>0.07232679526450758</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02500493968622746</v>
+        <v>0.03873501260906406</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>67</v>
+      </c>
+      <c r="J80" t="n">
+        <v>137</v>
+      </c>
+      <c r="K80" t="n">
+        <v>106.8929442654497</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3414006023.551476</v>
+        <v>5132327074.258409</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1238968681125107</v>
+        <v>0.121468393976607</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03245863148685193</v>
+        <v>0.02878416842362911</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>63</v>
+      </c>
+      <c r="J81" t="n">
+        <v>137</v>
+      </c>
+      <c r="K81" t="n">
+        <v>124.1176637628608</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5223852848.125529</v>
+        <v>4485456459.311027</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1481006568993657</v>
+        <v>0.1740745643566542</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02472108434443396</v>
+        <v>0.02484222673629715</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>98</v>
+      </c>
+      <c r="J82" t="n">
+        <v>138</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1905260423.568022</v>
+        <v>1572848608.815446</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1015128447333744</v>
+        <v>0.103085403463765</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0336247541212437</v>
+        <v>0.04040608078035204</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2028960420.187201</v>
+        <v>2426940074.275591</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1026016778020868</v>
+        <v>0.09053145710797986</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03620116027017257</v>
+        <v>0.04754533353538985</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3436,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2413156230.677269</v>
+        <v>3337584301.50915</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1560624788119511</v>
+        <v>0.1411955805712374</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03495238450778484</v>
+        <v>0.03476487061002075</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>22</v>
+      </c>
+      <c r="J85" t="n">
+        <v>137</v>
+      </c>
+      <c r="K85" t="n">
+        <v>94.49267070867272</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1712058859.171556</v>
+        <v>2366347231.322488</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1377625255356923</v>
+        <v>0.1332667643590008</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01829602687215411</v>
+        <v>0.02386206225732827</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1356980304.528287</v>
+        <v>1406951893.007713</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1245051797280141</v>
+        <v>0.1840692399576898</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04360216544296005</v>
+        <v>0.02709440558624551</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2705082258.286874</v>
+        <v>3129433970.285131</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1421939127323311</v>
+        <v>0.12837900800219</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02660453350174427</v>
+        <v>0.03282936330053413</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>19</v>
+      </c>
+      <c r="J88" t="n">
+        <v>134</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3333928726.970295</v>
+        <v>2592829755.459209</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1385730573102487</v>
+        <v>0.146394871037708</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02790820462868913</v>
+        <v>0.02623451913073928</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>124</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1433588991.012422</v>
+        <v>1989281782.806439</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1020753385152075</v>
+        <v>0.1289049335144831</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04747498164620223</v>
+        <v>0.05208361942638934</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2081424200.137521</v>
+        <v>1751848376.218556</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1418482347804182</v>
+        <v>0.1902023203361522</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03864521997915489</v>
+        <v>0.03731313245483817</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2032415961.465548</v>
+        <v>2663725601.388865</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09305559399615022</v>
+        <v>0.09906340654761513</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04204225748061992</v>
+        <v>0.04448389692405783</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3400287512.646794</v>
+        <v>3205350547.528197</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1077629136974195</v>
+        <v>0.1412296090251382</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0358697367789965</v>
+        <v>0.04238007802396974</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>62</v>
+      </c>
+      <c r="J93" t="n">
+        <v>136</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1714736609.766423</v>
+        <v>1926384175.921625</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1379968370841072</v>
+        <v>0.1279348894365311</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02735338085359978</v>
+        <v>0.03744965220837284</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3121681107.145312</v>
+        <v>3056626202.908268</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1096948407396281</v>
+        <v>0.0882146064395339</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03909045284478395</v>
+        <v>0.0499886073878506</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1856721247.766225</v>
+        <v>1646220323.093199</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1084026701251809</v>
+        <v>0.1106188417534688</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04662794118527918</v>
+        <v>0.04551294037119488</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5151283764.447214</v>
+        <v>3877132407.739659</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1665121558401743</v>
+        <v>0.1565281926340623</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02289555853911766</v>
+        <v>0.02647905340106588</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>66</v>
+      </c>
+      <c r="J97" t="n">
+        <v>137</v>
+      </c>
+      <c r="K97" t="n">
+        <v>116.846638699445</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3427424069.122801</v>
+        <v>2756938176.546424</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08382580575434352</v>
+        <v>0.1237971411071949</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02724630982815286</v>
+        <v>0.02916062673380642</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>32</v>
+      </c>
+      <c r="J98" t="n">
+        <v>132</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2098216372.238727</v>
+        <v>2166019646.316517</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1340143593334205</v>
+        <v>0.1455843629061679</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02817758303694504</v>
+        <v>0.02210577188002664</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3475579948.338515</v>
+        <v>4455738883.643524</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1465280911696867</v>
+        <v>0.1115705100684578</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0261616042309663</v>
+        <v>0.0170053175746193</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>56</v>
+      </c>
+      <c r="J100" t="n">
+        <v>138</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2178639587.884294</v>
+        <v>3510344764.941528</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1814568335745353</v>
+        <v>0.1582819569440958</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04310903988390263</v>
+        <v>0.03667042435334363</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>138</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
